--- a/dados_historicos/dados_geral/preco_soja_brl.xlsx
+++ b/dados_historicos/dados_geral/preco_soja_brl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente HT\Desktop\programas python\PRODUÇÃO DE GADO\dados_historicos\dados_geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66140598-E761-44BA-9FA5-F875BC7CCC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F0750C-ABFC-44AF-9A6E-949813072EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C804BE9-01BB-4DFB-B204-B9B01DAE6379}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2143ACD1-D885-4E0D-AE74-0986EDEAD1EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="4870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4876" uniqueCount="4876">
   <si>
     <t>INDICADOR DA SOJA CEPEA/ESALQ - PARANAGUÁ</t>
   </si>
@@ -14631,6 +14631,24 @@
   </si>
   <si>
     <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
   </si>
 </sst>
 </file>
@@ -15070,8 +15088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA290E86-9E82-439B-82A6-4077026DCB3C}">
-  <dimension ref="A1:J4869"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168FEA23-AA17-4750-AC6C-1365224426E1}">
+  <dimension ref="A1:J4875"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -68650,6 +68668,72 @@
         <v>26.45</v>
       </c>
     </row>
+    <row r="4870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4870" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B4870" s="2">
+        <v>140.18</v>
+      </c>
+      <c r="C4870" s="2">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4871" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B4871" s="2">
+        <v>140.29</v>
+      </c>
+      <c r="C4871" s="2">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4872" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B4872" s="2">
+        <v>139.81</v>
+      </c>
+      <c r="C4872" s="2">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4873" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B4873" s="2">
+        <v>139.33000000000001</v>
+      </c>
+      <c r="C4873" s="2">
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4874" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B4874" s="2">
+        <v>137.16999999999999</v>
+      </c>
+      <c r="C4874" s="2">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4875" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B4875" s="2">
+        <v>135.57</v>
+      </c>
+      <c r="C4875" s="2">
+        <v>25.65</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
@@ -68664,7 +68748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC03CFE8-87EE-411A-A1A5-E5B41C0AC52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773D7033-8016-49BC-B372-83903860CA2E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
